--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\Fidel\matlab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72820D7-87E4-4C6E-979E-C9426337053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="2" r:id="rId1"/>
     <sheet name="old" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -53,14 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -74,161 +74,9 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,194 +95,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -442,251 +104,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -696,68 +116,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -773,11 +149,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5121" name="Chart 4"/>
+        <xdr:cNvPr id="5121" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -813,11 +195,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5122" name="Chart 5"/>
+        <xdr:cNvPr id="5122" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" r:link="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1093,19 +481,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K134"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
@@ -1174,7 +562,7 @@
         <v>148.9</v>
       </c>
       <c r="K2" s="5">
-        <v>149.2</v>
+        <v>149.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1182,7 +570,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="5">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="C3" s="5">
         <v>45.7</v>
@@ -1229,10 +617,10 @@
         <v>160</v>
       </c>
       <c r="F4" s="5">
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="G4" s="5">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H4" s="5">
         <v>168.9</v>
@@ -1261,13 +649,13 @@
         <v>158.5</v>
       </c>
       <c r="E5" s="5">
-        <v>161.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="F5" s="5">
         <v>106.5</v>
       </c>
       <c r="G5" s="5">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="H5" s="5">
         <v>168.4</v>
@@ -1276,7 +664,7 @@
         <v>166.8</v>
       </c>
       <c r="J5" s="5">
-        <v>145.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="K5" s="5">
         <v>99.3</v>
@@ -1293,7 +681,7 @@
         <v>47.5</v>
       </c>
       <c r="D6" s="5">
-        <v>158.3</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="E6" s="5">
         <v>160.4</v>
@@ -1308,7 +696,7 @@
         <v>167.3</v>
       </c>
       <c r="I6" s="5">
-        <v>160.2</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="J6" s="5">
         <v>146.1</v>
@@ -1343,10 +731,10 @@
         <v>166.3</v>
       </c>
       <c r="I7" s="5">
-        <v>155.3</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="J7" s="5">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="K7" s="5">
         <v>94.6</v>
@@ -1363,16 +751,16 @@
         <v>65.8</v>
       </c>
       <c r="D8" s="5">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="E8" s="5">
-        <v>160.7</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="F8" s="5">
         <v>103.3</v>
       </c>
       <c r="G8" s="5">
-        <v>66.1</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="H8" s="5">
         <v>166.1</v>
@@ -1395,7 +783,7 @@
         <v>116.6</v>
       </c>
       <c r="C9" s="5">
-        <v>68.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D9" s="5">
         <v>157.1</v>
@@ -1430,7 +818,7 @@
         <v>120</v>
       </c>
       <c r="C10" s="5">
-        <v>68.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D10" s="5">
         <v>156.9</v>
@@ -1503,7 +891,7 @@
         <v>78</v>
       </c>
       <c r="D12" s="5">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="E12" s="5">
         <v>160.1</v>
@@ -1547,7 +935,7 @@
         <v>121.8</v>
       </c>
       <c r="G13" s="5">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="H13" s="5">
         <v>167.4</v>
@@ -1643,7 +1031,7 @@
         <v>78.5</v>
       </c>
       <c r="D16" s="5">
-        <v>156.3</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="E16" s="5">
         <v>168.5</v>
@@ -1678,7 +1066,7 @@
         <v>82.5</v>
       </c>
       <c r="D17" s="5">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="E17" s="5">
         <v>165.8</v>
@@ -1748,7 +1136,7 @@
         <v>56.4</v>
       </c>
       <c r="D19" s="5">
-        <v>154.3</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="E19" s="5">
         <v>168.4</v>
@@ -1766,7 +1154,7 @@
         <v>172.3</v>
       </c>
       <c r="J19" s="5">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="K19" s="5">
         <v>121.8</v>
@@ -1777,7 +1165,7 @@
         <v>610</v>
       </c>
       <c r="B20" s="5">
-        <v>141.8</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="C20" s="5">
         <v>46.3</v>
@@ -1795,13 +1183,13 @@
         <v>13</v>
       </c>
       <c r="H20" s="5">
-        <v>161.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="I20" s="5">
         <v>177.2</v>
       </c>
       <c r="J20" s="5">
-        <v>81.4</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="K20" s="5">
         <v>123.5</v>
@@ -1815,7 +1203,7 @@
         <v>116</v>
       </c>
       <c r="C21" s="5">
-        <v>70.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D21" s="5">
         <v>152</v>
@@ -1830,13 +1218,13 @@
         <v>53.6</v>
       </c>
       <c r="H21" s="5">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="I21" s="5">
         <v>176.5</v>
       </c>
       <c r="J21" s="5">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="K21" s="5">
         <v>120.2</v>
@@ -1871,7 +1259,7 @@
         <v>178.6</v>
       </c>
       <c r="J22" s="5">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="K22" s="5">
         <v>118.1</v>
@@ -1888,7 +1276,7 @@
         <v>44.4</v>
       </c>
       <c r="D23" s="5">
-        <v>153.3</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="E23" s="5">
         <v>168.2</v>
@@ -1897,10 +1285,10 @@
         <v>97.8</v>
       </c>
       <c r="G23" s="5">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="H23" s="5">
-        <v>152.2</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="I23" s="5">
         <v>175</v>
@@ -1920,10 +1308,10 @@
         <v>178</v>
       </c>
       <c r="C24" s="5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D24" s="5">
-        <v>152.3</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="E24" s="5">
         <v>165.1</v>
@@ -1935,7 +1323,7 @@
         <v>82.5</v>
       </c>
       <c r="H24" s="5">
-        <v>150.8</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="I24" s="5">
         <v>177</v>
@@ -1976,7 +1364,7 @@
         <v>174.1</v>
       </c>
       <c r="J25" s="5">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="K25" s="5">
         <v>109</v>
@@ -2005,7 +1393,7 @@
         <v>84.3</v>
       </c>
       <c r="H26" s="5">
-        <v>142.8</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="I26" s="5">
         <v>171.1</v>
@@ -2022,13 +1410,13 @@
         <v>874</v>
       </c>
       <c r="B27" s="5">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="C27" s="5">
         <v>37</v>
       </c>
       <c r="D27" s="5">
-        <v>156.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="E27" s="5">
         <v>166</v>
@@ -2040,7 +1428,7 @@
         <v>110</v>
       </c>
       <c r="H27" s="5">
-        <v>139.3</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="I27" s="5">
         <v>164.9</v>
@@ -2057,7 +1445,7 @@
         <v>911</v>
       </c>
       <c r="B28" s="5">
-        <v>148.3</v>
+        <v>148.30000000000001</v>
       </c>
       <c r="C28" s="5">
         <v>41.3</v>
@@ -2116,7 +1504,7 @@
         <v>167.9</v>
       </c>
       <c r="J29" s="5">
-        <v>145.3</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="K29" s="5">
         <v>97</v>
@@ -2133,7 +1521,7 @@
         <v>62.6</v>
       </c>
       <c r="D30" s="5">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="E30" s="5">
         <v>154.9</v>
@@ -2145,7 +1533,7 @@
         <v>114.9</v>
       </c>
       <c r="H30" s="5">
-        <v>152.2</v>
+        <v>152.19999999999999</v>
       </c>
       <c r="I30" s="5">
         <v>171.7</v>
@@ -2171,7 +1559,7 @@
         <v>156.9</v>
       </c>
       <c r="E31" s="5">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="F31" s="5">
         <v>49.9</v>
@@ -2203,10 +1591,10 @@
         <v>67.8</v>
       </c>
       <c r="D32" s="5">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="E32" s="5">
-        <v>153.2</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="F32" s="5">
         <v>34.5</v>
@@ -2238,19 +1626,19 @@
         <v>74.3</v>
       </c>
       <c r="D33" s="5">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="E33" s="5">
         <v>158.6</v>
       </c>
       <c r="F33" s="5">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="G33" s="5">
         <v>107.7</v>
       </c>
       <c r="H33" s="5">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="I33" s="5">
         <v>172.1</v>
@@ -2276,7 +1664,7 @@
         <v>156</v>
       </c>
       <c r="E34" s="5">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="F34" s="5">
         <v>31.6</v>
@@ -2305,7 +1693,7 @@
         <v>119</v>
       </c>
       <c r="C35" s="5">
-        <v>77.4</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D35" s="5">
         <v>161.9</v>
@@ -2326,7 +1714,7 @@
         <v>171.9</v>
       </c>
       <c r="J35" s="5">
-        <v>129.7</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="K35" s="5">
         <v>88.5</v>
@@ -2346,13 +1734,13 @@
         <v>152.9</v>
       </c>
       <c r="E36" s="5">
-        <v>156.3</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="F36" s="5">
         <v>10.6</v>
       </c>
       <c r="G36" s="5">
-        <v>132.8</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="H36" s="5">
         <v>175</v>
@@ -2361,7 +1749,7 @@
         <v>169</v>
       </c>
       <c r="J36" s="5">
-        <v>128.7</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="K36" s="5">
         <v>86.2</v>
@@ -2381,7 +1769,7 @@
         <v>162.1</v>
       </c>
       <c r="E37" s="5">
-        <v>153.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="F37" s="5">
         <v>44.6</v>
@@ -2399,7 +1787,7 @@
         <v>125.9</v>
       </c>
       <c r="K37" s="5">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2416,7 +1804,7 @@
         <v>159</v>
       </c>
       <c r="E38" s="5">
-        <v>156.3</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="F38" s="5">
         <v>42.5</v>
@@ -2445,13 +1833,13 @@
         <v>156.1</v>
       </c>
       <c r="C39" s="5">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D39" s="5">
         <v>168.1</v>
       </c>
       <c r="E39" s="5">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F39" s="5">
         <v>41.9</v>
@@ -2463,13 +1851,13 @@
         <v>167.4</v>
       </c>
       <c r="I39" s="5">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="J39" s="5">
         <v>118.4</v>
       </c>
       <c r="K39" s="5">
-        <v>75.1</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2477,13 +1865,13 @@
         <v>1310</v>
       </c>
       <c r="B40" s="5">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="C40" s="5">
         <v>33.5</v>
       </c>
       <c r="D40" s="5">
-        <v>160.8</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="E40" s="5">
         <v>161</v>
@@ -2504,7 +1892,7 @@
         <v>115.9</v>
       </c>
       <c r="K40" s="5">
-        <v>75.1</v>
+        <v>75.099999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2568,7 +1956,7 @@
         <v>168.6</v>
       </c>
       <c r="I42" s="5">
-        <v>142.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="J42" s="5">
         <v>110.7</v>
@@ -2591,7 +1979,7 @@
         <v>165.4</v>
       </c>
       <c r="E43" s="5">
-        <v>161.8</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F43" s="5">
         <v>53.5</v>
@@ -2609,7 +1997,7 @@
         <v>110</v>
       </c>
       <c r="K43" s="5">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2632,7 +2020,7 @@
         <v>106.5</v>
       </c>
       <c r="G44" s="5">
-        <v>72.4</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="H44" s="5">
         <v>169.6</v>
@@ -2658,7 +2046,7 @@
         <v>54.7</v>
       </c>
       <c r="D45" s="5">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="E45" s="5">
         <v>166.9</v>
@@ -2667,7 +2055,7 @@
         <v>94.6</v>
       </c>
       <c r="G45" s="5">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H45" s="5">
         <v>165.9</v>
@@ -2705,7 +2093,7 @@
         <v>69.8</v>
       </c>
       <c r="H46" s="5">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="I46" s="5">
         <v>134.9</v>
@@ -2728,7 +2116,7 @@
         <v>56.8</v>
       </c>
       <c r="D47" s="5">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="E47" s="5">
         <v>165.3</v>
@@ -2772,13 +2160,13 @@
         <v>89.9</v>
       </c>
       <c r="G48" s="5">
-        <v>65.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="H48" s="5">
         <v>168.9</v>
       </c>
       <c r="I48" s="5">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="J48" s="5">
         <v>97.2</v>
@@ -2798,7 +2186,7 @@
         <v>58.3</v>
       </c>
       <c r="D49" s="5">
-        <v>160.2</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="E49" s="5">
         <v>167.2</v>
@@ -2813,7 +2201,7 @@
         <v>170.4</v>
       </c>
       <c r="I49" s="5">
-        <v>146.3</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="J49" s="5">
         <v>96.3</v>
@@ -2833,7 +2221,7 @@
         <v>66.2</v>
       </c>
       <c r="D50" s="5">
-        <v>154.8</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E50" s="5">
         <v>164</v>
@@ -2848,7 +2236,7 @@
         <v>171.2</v>
       </c>
       <c r="I50" s="5">
-        <v>161.7</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="J50" s="5">
         <v>94.7</v>
@@ -2862,7 +2250,7 @@
         <v>1676</v>
       </c>
       <c r="B51" s="5">
-        <v>128.3</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="C51" s="5">
         <v>64.7</v>
@@ -2874,7 +2262,7 @@
         <v>170.2</v>
       </c>
       <c r="F51" s="5">
-        <v>81.9</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="G51" s="5">
         <v>63.2</v>
@@ -2883,7 +2271,7 @@
         <v>172.2</v>
       </c>
       <c r="I51" s="5">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="J51" s="5">
         <v>93.2</v>
@@ -2900,16 +2288,16 @@
         <v>123.8</v>
       </c>
       <c r="C52" s="5">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="D52" s="5">
-        <v>154.3</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="E52" s="5">
         <v>169.5</v>
       </c>
       <c r="F52" s="5">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="G52" s="5">
         <v>66.8</v>
@@ -2959,7 +2347,7 @@
         <v>86.7</v>
       </c>
       <c r="K53" s="5">
-        <v>130.3</v>
+        <v>130.30000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2982,7 +2370,7 @@
         <v>74</v>
       </c>
       <c r="G54" s="5">
-        <v>69.4</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="H54" s="5">
         <v>167.1</v>
@@ -2994,7 +2382,7 @@
         <v>84.2</v>
       </c>
       <c r="K54" s="5">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3029,7 +2417,7 @@
         <v>80.2</v>
       </c>
       <c r="K55" s="5">
-        <v>143.7</v>
+        <v>143.69999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3049,13 +2437,13 @@
         <v>167.3</v>
       </c>
       <c r="F56" s="5">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="G56" s="5">
         <v>78.7</v>
       </c>
       <c r="H56" s="5">
-        <v>162.2</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="I56" s="5">
         <v>167.6</v>
@@ -3072,31 +2460,31 @@
         <v>1872</v>
       </c>
       <c r="B57" s="5">
-        <v>134.3</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="C57" s="5">
         <v>54.1</v>
       </c>
       <c r="D57" s="5">
-        <v>153.7</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="E57" s="5">
         <v>172.7</v>
       </c>
       <c r="F57" s="5">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="G57" s="5">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="H57" s="5">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="I57" s="5">
         <v>169.8</v>
       </c>
       <c r="J57" s="5">
-        <v>75.9</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="K57" s="5">
         <v>119.9</v>
@@ -3107,19 +2495,19 @@
         <v>1910</v>
       </c>
       <c r="B58" s="5">
-        <v>140.3</v>
+        <v>140.30000000000001</v>
       </c>
       <c r="C58" s="5">
         <v>50.6</v>
       </c>
       <c r="D58" s="5">
-        <v>158.3</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="E58" s="5">
         <v>168.3</v>
       </c>
       <c r="F58" s="5">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="G58" s="5">
         <v>83.2</v>
@@ -3131,7 +2519,7 @@
         <v>168.5</v>
       </c>
       <c r="J58" s="5">
-        <v>70.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="K58" s="5">
         <v>116.4</v>
@@ -3145,7 +2533,7 @@
         <v>146</v>
       </c>
       <c r="C59" s="5">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="D59" s="5">
         <v>156.5</v>
@@ -3166,7 +2554,7 @@
         <v>172.6</v>
       </c>
       <c r="J59" s="5">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="K59" s="5">
         <v>115.4</v>
@@ -3177,13 +2565,13 @@
         <v>1977</v>
       </c>
       <c r="B60" s="5">
-        <v>143.2</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="C60" s="5">
         <v>41.9</v>
       </c>
       <c r="D60" s="5">
-        <v>157.8</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="E60" s="5">
         <v>164.7</v>
@@ -3230,13 +2618,13 @@
         <v>97.7</v>
       </c>
       <c r="H61" s="5">
-        <v>135.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="I61" s="5">
         <v>173.4</v>
       </c>
       <c r="J61" s="5">
-        <v>71.4</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="K61" s="5">
         <v>110.4</v>
@@ -3253,7 +2641,7 @@
         <v>7.5</v>
       </c>
       <c r="D62" s="5">
-        <v>157.3</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="E62" s="5">
         <v>161.6</v>
@@ -3282,7 +2670,7 @@
         <v>2076</v>
       </c>
       <c r="B63" s="5">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="C63" s="5">
         <v>24.3</v>
@@ -3291,7 +2679,7 @@
         <v>156.1</v>
       </c>
       <c r="E63" s="5">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="F63" s="5">
         <v>12.7</v>
@@ -3300,7 +2688,7 @@
         <v>156.9</v>
       </c>
       <c r="H63" s="5">
-        <v>131.3</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="I63" s="5">
         <v>169.5</v>
@@ -3309,7 +2697,7 @@
         <v>75.5</v>
       </c>
       <c r="K63" s="5">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3326,7 +2714,7 @@
         <v>158.5</v>
       </c>
       <c r="E64" s="5">
-        <v>161.7</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="F64" s="5">
         <v>41.6</v>
@@ -3376,7 +2764,7 @@
         <v>171.6</v>
       </c>
       <c r="J65" s="5">
-        <v>145.7</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="K65" s="5">
         <v>101.4</v>
@@ -3387,7 +2775,7 @@
         <v>2177</v>
       </c>
       <c r="B66" s="5">
-        <v>145.8</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="C66" s="5">
         <v>47.1</v>
@@ -3411,7 +2799,7 @@
         <v>172.1</v>
       </c>
       <c r="J66" s="5">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="K66" s="5">
         <v>120.9</v>
@@ -3422,7 +2810,7 @@
         <v>2211</v>
       </c>
       <c r="B67" s="5">
-        <v>135.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="C67" s="5">
         <v>58.5</v>
@@ -3431,7 +2819,7 @@
         <v>156.4</v>
       </c>
       <c r="E67" s="5">
-        <v>156.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="F67" s="5">
         <v>68.5</v>
@@ -3495,7 +2883,7 @@
         <v>131.9</v>
       </c>
       <c r="C69" s="5">
-        <v>66.6</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D69" s="5">
         <v>160.1</v>
@@ -3530,13 +2918,13 @@
         <v>129.4</v>
       </c>
       <c r="C70" s="5">
-        <v>68.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D70" s="5">
         <v>164.3</v>
       </c>
       <c r="E70" s="5">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="F70" s="5">
         <v>60.5</v>
@@ -3551,7 +2939,7 @@
         <v>173.1</v>
       </c>
       <c r="J70" s="5">
-        <v>137.2</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="K70" s="5">
         <v>117.3</v>
@@ -3565,10 +2953,10 @@
         <v>119</v>
       </c>
       <c r="C71" s="5">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D71" s="5">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="E71" s="5">
         <v>157</v>
@@ -3600,7 +2988,7 @@
         <v>136.4</v>
       </c>
       <c r="C72" s="5">
-        <v>64.1</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="D72" s="5">
         <v>165.5</v>
@@ -3621,7 +3009,7 @@
         <v>171.1</v>
       </c>
       <c r="J72" s="5">
-        <v>129.2</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="K72" s="5">
         <v>113.4</v>
@@ -3632,7 +3020,7 @@
         <v>2408</v>
       </c>
       <c r="B73" s="5">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="C73" s="5">
         <v>67.8</v>
@@ -3641,7 +3029,7 @@
         <v>165.3</v>
       </c>
       <c r="E73" s="5">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="F73" s="5">
         <v>74.7</v>
@@ -3656,7 +3044,7 @@
         <v>167.2</v>
       </c>
       <c r="J73" s="5">
-        <v>140.8</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="K73" s="5">
         <v>112.7</v>
@@ -3676,7 +3064,7 @@
         <v>168.8</v>
       </c>
       <c r="E74" s="5">
-        <v>159.3</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="F74" s="5">
         <v>62.7</v>
@@ -3702,7 +3090,7 @@
         <v>2475</v>
       </c>
       <c r="B75" s="5">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="C75" s="5">
         <v>63.5</v>
@@ -3758,7 +3146,7 @@
         <v>175.6</v>
       </c>
       <c r="I76" s="5">
-        <v>153.8</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="J76" s="5">
         <v>139</v>
@@ -3772,7 +3160,7 @@
         <v>2544</v>
       </c>
       <c r="B77" s="5">
-        <v>137.8</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="C77" s="5">
         <v>53.2</v>
@@ -3781,10 +3169,10 @@
         <v>167.6</v>
       </c>
       <c r="E77" s="5">
-        <v>159.2</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="F77" s="5">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="G77" s="5">
         <v>98.1</v>
@@ -3810,7 +3198,7 @@
         <v>169.1</v>
       </c>
       <c r="C78" s="5">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D78" s="5">
         <v>168.6</v>
@@ -3831,10 +3219,10 @@
         <v>141.4</v>
       </c>
       <c r="J78" s="5">
-        <v>131.2</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="K78" s="5">
-        <v>129.7</v>
+        <v>129.69999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3842,7 +3230,7 @@
         <v>2612</v>
       </c>
       <c r="B79" s="5">
-        <v>152.8</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="C79" s="5">
         <v>22.2</v>
@@ -3863,7 +3251,7 @@
         <v>176.1</v>
       </c>
       <c r="I79" s="5">
-        <v>141.3</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="J79" s="5">
         <v>130</v>
@@ -3877,13 +3265,13 @@
         <v>2643</v>
       </c>
       <c r="B80" s="5">
-        <v>144.2</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="C80" s="5">
         <v>33.5</v>
       </c>
       <c r="D80" s="5">
-        <v>161.3</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="E80" s="5">
         <v>160.1</v>
@@ -3904,7 +3292,7 @@
         <v>127.2</v>
       </c>
       <c r="K80" s="5">
-        <v>140.3</v>
+        <v>140.30000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3933,7 +3321,7 @@
         <v>171.3</v>
       </c>
       <c r="I81" s="5">
-        <v>143.3</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="J81" s="5">
         <v>124.3</v>
@@ -3968,7 +3356,7 @@
         <v>169.9</v>
       </c>
       <c r="I82" s="5">
-        <v>141.3</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="J82" s="5">
         <v>138.1</v>
@@ -3982,16 +3370,16 @@
         <v>2745</v>
       </c>
       <c r="B83" s="5">
-        <v>133.3</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="C83" s="5">
         <v>54.8</v>
       </c>
       <c r="D83" s="5">
-        <v>155.2</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="E83" s="5">
-        <v>159.7</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="F83" s="5">
         <v>120.1</v>
@@ -4003,7 +3391,7 @@
         <v>167.5</v>
       </c>
       <c r="I83" s="5">
-        <v>147.8</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="J83" s="5">
         <v>137.6</v>
@@ -4023,10 +3411,10 @@
         <v>57.5</v>
       </c>
       <c r="D84" s="5">
-        <v>154.3</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="E84" s="5">
-        <v>161.2</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="F84" s="5">
         <v>102</v>
@@ -4073,13 +3461,13 @@
         <v>173</v>
       </c>
       <c r="I85" s="5">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="J85" s="5">
         <v>123.7</v>
       </c>
       <c r="K85" s="5">
-        <v>138.3</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4087,7 +3475,7 @@
         <v>2842</v>
       </c>
       <c r="B86" s="5">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="C86" s="5">
         <v>60.7</v>
@@ -4099,10 +3487,10 @@
         <v>163.5</v>
       </c>
       <c r="F86" s="5">
-        <v>79.4</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="G86" s="5">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="H86" s="5">
         <v>173.8</v>
@@ -4114,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="K86" s="5">
-        <v>142.3</v>
+        <v>142.30000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4122,7 +3510,7 @@
         <v>2878</v>
       </c>
       <c r="B87" s="5">
-        <v>139.3</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="C87" s="5">
         <v>57.3</v>
@@ -4134,7 +3522,7 @@
         <v>164.4</v>
       </c>
       <c r="F87" s="5">
-        <v>74.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="G87" s="5">
         <v>82.3</v>
@@ -4149,7 +3537,7 @@
         <v>121</v>
       </c>
       <c r="K87" s="5">
-        <v>138.2</v>
+        <v>138.19999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4163,13 +3551,13 @@
         <v>56.7</v>
       </c>
       <c r="D88" s="5">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="E88" s="5">
         <v>165.1</v>
       </c>
       <c r="F88" s="5">
-        <v>79.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="G88" s="5">
         <v>76.7</v>
@@ -4198,7 +3586,7 @@
         <v>52</v>
       </c>
       <c r="D89" s="5">
-        <v>154.3</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="E89" s="5">
         <v>165</v>
@@ -4219,7 +3607,7 @@
         <v>117.7</v>
       </c>
       <c r="K89" s="5">
-        <v>135.2</v>
+        <v>135.19999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4254,7 +3642,7 @@
         <v>117.4</v>
       </c>
       <c r="K90" s="5">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4262,19 +3650,19 @@
         <v>3013</v>
       </c>
       <c r="B91" s="5">
-        <v>147.3</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="C91" s="5">
         <v>51.9</v>
       </c>
       <c r="D91" s="5">
-        <v>151.8</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="E91" s="5">
         <v>163.9</v>
       </c>
       <c r="F91" s="5">
-        <v>65.1</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="G91" s="5">
         <v>84.8</v>
@@ -4289,7 +3677,7 @@
         <v>115.4</v>
       </c>
       <c r="K91" s="5">
-        <v>138.8</v>
+        <v>138.80000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4324,7 +3712,7 @@
         <v>111.6</v>
       </c>
       <c r="K92" s="5">
-        <v>137.3</v>
+        <v>137.30000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4338,7 +3726,7 @@
         <v>24</v>
       </c>
       <c r="D93" s="5">
-        <v>150.2</v>
+        <v>150.19999999999999</v>
       </c>
       <c r="E93" s="5">
         <v>163</v>
@@ -4347,7 +3735,7 @@
         <v>3.9</v>
       </c>
       <c r="G93" s="5">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="H93" s="5">
         <v>171.7</v>
@@ -4373,7 +3761,7 @@
         <v>16.3</v>
       </c>
       <c r="D94" s="5">
-        <v>156.2</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="E94" s="5">
         <v>168.6</v>
@@ -4408,7 +3796,7 @@
         <v>31.1</v>
       </c>
       <c r="D95" s="5">
-        <v>147.7</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="E95" s="5">
         <v>163.9</v>
@@ -4417,7 +3805,7 @@
         <v>69.3</v>
       </c>
       <c r="G95" s="5">
-        <v>137.7</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="H95" s="5">
         <v>166.9</v>
@@ -4475,10 +3863,10 @@
         <v>139.4</v>
       </c>
       <c r="C97" s="5">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D97" s="5">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="E97" s="5">
         <v>166.6</v>
@@ -4490,7 +3878,7 @@
         <v>96.2</v>
       </c>
       <c r="H97" s="5">
-        <v>155.7</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="I97" s="5">
         <v>177.4</v>
@@ -4507,13 +3895,13 @@
         <v>3243</v>
       </c>
       <c r="B98" s="5">
-        <v>133.3</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="C98" s="5">
         <v>42.5</v>
       </c>
       <c r="D98" s="5">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="E98" s="5">
         <v>166.6</v>
@@ -4525,7 +3913,7 @@
         <v>95</v>
       </c>
       <c r="H98" s="5">
-        <v>149.3</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="I98" s="5">
         <v>178.5</v>
@@ -4534,7 +3922,7 @@
         <v>110.2</v>
       </c>
       <c r="K98" s="5">
-        <v>136.2</v>
+        <v>136.19999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4577,19 +3965,19 @@
         <v>3313</v>
       </c>
       <c r="B100" s="5">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="C100" s="5">
         <v>51.1</v>
       </c>
       <c r="D100" s="5">
-        <v>155.3</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="E100" s="5">
         <v>164.6</v>
       </c>
       <c r="F100" s="5">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="G100" s="5">
         <v>102.9</v>
@@ -4639,7 +4027,7 @@
         <v>115.6</v>
       </c>
       <c r="K101" s="5">
-        <v>133.7</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4650,13 +4038,13 @@
         <v>116.4</v>
       </c>
       <c r="C102" s="5">
-        <v>69.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D102" s="5">
-        <v>157.3</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="E102" s="5">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="F102" s="5">
         <v>77.7</v>
@@ -4674,7 +4062,7 @@
         <v>115</v>
       </c>
       <c r="K102" s="5">
-        <v>132.3</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4688,7 +4076,7 @@
         <v>74.8</v>
       </c>
       <c r="D103" s="5">
-        <v>158.3</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="E103" s="5">
         <v>164.1</v>
@@ -4723,7 +4111,7 @@
         <v>80.5</v>
       </c>
       <c r="D104" s="5">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="E104" s="5">
         <v>165.7</v>
@@ -4744,7 +4132,7 @@
         <v>122.9</v>
       </c>
       <c r="K104" s="5">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4755,13 +4143,13 @@
         <v>119.3</v>
       </c>
       <c r="C105" s="5">
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D105" s="5">
-        <v>159.2</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="E105" s="5">
-        <v>163.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="F105" s="5">
         <v>75.2</v>
@@ -4779,7 +4167,7 @@
         <v>107</v>
       </c>
       <c r="K105" s="5">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4793,7 +4181,7 @@
         <v>79</v>
       </c>
       <c r="D106" s="5">
-        <v>160.3</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="E106" s="5">
         <v>164.9</v>
@@ -4805,7 +4193,7 @@
         <v>94.4</v>
       </c>
       <c r="H106" s="5">
-        <v>154.7</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="I106" s="5">
         <v>178.3</v>
@@ -4814,7 +4202,7 @@
         <v>109.6</v>
       </c>
       <c r="K106" s="5">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4834,7 +4222,7 @@
         <v>162.6</v>
       </c>
       <c r="F107" s="5">
-        <v>79.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="G107" s="5">
         <v>91.3</v>
@@ -4884,7 +4272,7 @@
         <v>116.1</v>
       </c>
       <c r="K108" s="5">
-        <v>129.2</v>
+        <v>129.19999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4901,7 +4289,7 @@
         <v>161.4</v>
       </c>
       <c r="E109" s="5">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="F109" s="5">
         <v>83.2</v>
@@ -4968,10 +4356,10 @@
         <v>103.2</v>
       </c>
       <c r="D111" s="5">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="E111" s="5">
-        <v>163.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="F111" s="5">
         <v>84</v>
@@ -5006,7 +4394,7 @@
         <v>162.9</v>
       </c>
       <c r="E112" s="5">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="F112" s="5">
         <v>84.8</v>
@@ -5143,7 +4531,7 @@
         <v>96.8</v>
       </c>
       <c r="D116" s="5">
-        <v>161.8</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="E116" s="5">
         <v>161.9</v>
@@ -5248,7 +4636,7 @@
         <v>94.4</v>
       </c>
       <c r="D119" s="5">
-        <v>163.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="E119" s="5">
         <v>166.5</v>
@@ -5283,7 +4671,7 @@
         <v>91.3</v>
       </c>
       <c r="D120" s="5">
-        <v>162.8</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="E120" s="5">
         <v>167.9</v>
@@ -5318,7 +4706,7 @@
         <v>93.8</v>
       </c>
       <c r="D121" s="5">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="E121" s="5">
         <v>169</v>
@@ -5423,7 +4811,7 @@
         <v>86.1</v>
       </c>
       <c r="D124" s="5">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="E124" s="5">
         <v>170.2</v>
@@ -5455,7 +4843,7 @@
         <v>99.3</v>
       </c>
       <c r="C125" s="5">
-        <v>80.6</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="D125" s="5">
         <v>162.1</v>
@@ -5490,7 +4878,7 @@
         <v>110.5</v>
       </c>
       <c r="C126" s="5">
-        <v>68.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D126" s="5">
         <v>162</v>
@@ -5703,7 +5091,7 @@
         <v>21.2</v>
       </c>
       <c r="D132" s="5">
-        <v>161.8</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="E132" s="5">
         <v>166.6</v>
@@ -5712,7 +5100,7 @@
         <v>98.6</v>
       </c>
       <c r="G132" s="5">
-        <v>78.6</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H132" s="5">
         <v>176.3</v>
@@ -5732,13 +5120,13 @@
         <v>4416</v>
       </c>
       <c r="B133" s="5">
-        <v>157.8</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="C133" s="5">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D133" s="5">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="E133" s="5">
         <v>166.1</v>
@@ -5799,25 +5187,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
-    <col min="2" max="2" width="18.5740740740741" customWidth="1"/>
-    <col min="3" max="15" width="9.13888888888889" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5887,7 +5273,7 @@
         <v>143.5</v>
       </c>
       <c r="K2" s="3">
-        <v>140.3</v>
+        <v>140.30000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5919,7 +5305,7 @@
         <v>172.5</v>
       </c>
       <c r="J3" s="3">
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="K3" s="3">
         <v>141.1</v>
@@ -6097,7 +5483,7 @@
         <v>141.1</v>
       </c>
       <c r="K8" s="3">
-        <v>136.7</v>
+        <v>136.69999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6120,7 +5506,7 @@
         <v>89.2</v>
       </c>
       <c r="G9" s="3">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="H9" s="3">
         <v>179.6</v>
@@ -6129,10 +5515,10 @@
         <v>170.4</v>
       </c>
       <c r="J9" s="3">
-        <v>153.3</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="K9" s="3">
-        <v>145.3</v>
+        <v>145.30000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6164,10 +5550,10 @@
         <v>169.9</v>
       </c>
       <c r="J10" s="3">
-        <v>155.3</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="K10" s="3">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6479,7 +5865,7 @@
         <v>177.7</v>
       </c>
       <c r="J19" s="3">
-        <v>159.2</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="K19" s="3">
         <v>175</v>
@@ -6794,7 +6180,7 @@
         <v>178.8</v>
       </c>
       <c r="J28" s="3">
-        <v>145.3</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="K28" s="3">
         <v>171.6</v>
@@ -7039,7 +6425,7 @@
         <v>174.8</v>
       </c>
       <c r="J35" s="3">
-        <v>160.2</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="K35" s="3">
         <v>167.1</v>
@@ -7275,7 +6661,7 @@
         <v>92.7</v>
       </c>
       <c r="G42" s="3">
-        <v>81.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="H42" s="3">
         <v>175.3</v>
@@ -7462,7 +6848,7 @@
         <v>160.9</v>
       </c>
       <c r="K47" s="3">
-        <v>143.2</v>
+        <v>143.19999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -7497,7 +6883,7 @@
         <v>155.6</v>
       </c>
       <c r="K48" s="3">
-        <v>150.3</v>
+        <v>150.30000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -7564,10 +6950,10 @@
         <v>177.2</v>
       </c>
       <c r="J50" s="3">
-        <v>157.3</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="K50" s="3">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -8089,7 +7475,7 @@
         <v>179.3</v>
       </c>
       <c r="J65" s="3">
-        <v>153.2</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="K65" s="3">
         <v>165.2</v>
@@ -8162,7 +7548,7 @@
         <v>176.6</v>
       </c>
       <c r="K67" s="3">
-        <v>157.7</v>
+        <v>157.69999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -8197,7 +7583,7 @@
         <v>176.9</v>
       </c>
       <c r="K68" s="3">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -8582,7 +7968,7 @@
         <v>175.8</v>
       </c>
       <c r="K79" s="3">
-        <v>158.2</v>
+        <v>158.19999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -8652,7 +8038,7 @@
         <v>168.4</v>
       </c>
       <c r="K81" s="3">
-        <v>153.7</v>
+        <v>153.69999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -8684,7 +8070,7 @@
         <v>178.5</v>
       </c>
       <c r="J82" s="3">
-        <v>159.8</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="K82" s="3">
         <v>166.6</v>
@@ -9349,7 +8735,7 @@
         <v>179</v>
       </c>
       <c r="J101" s="3">
-        <v>153.3</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="K101" s="3">
         <v>169.7</v>
@@ -9419,7 +8805,7 @@
         <v>177.3</v>
       </c>
       <c r="J103" s="3">
-        <v>156.2</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="K103" s="3">
         <v>167.8</v>
@@ -9457,7 +8843,7 @@
         <v>155</v>
       </c>
       <c r="K104" s="3">
-        <v>161.2</v>
+        <v>161.19999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -9492,7 +8878,7 @@
         <v>169.4</v>
       </c>
       <c r="K105" s="3">
-        <v>159.3</v>
+        <v>159.30000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -9527,7 +8913,7 @@
         <v>168.9</v>
       </c>
       <c r="K106" s="3">
-        <v>156.8</v>
+        <v>156.80000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -9559,7 +8945,7 @@
         <v>177.9</v>
       </c>
       <c r="J107" s="3">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="K107" s="3">
         <v>154.1</v>
@@ -10512,6 +9898,5 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <headerFooter/>
 </worksheet>
 </file>